--- a/3-back-end/bloco-21-funcoes-sql-joins-e-normalizacao/dia-3-transformando-ideias-em-um-modelo-de-banco-de-dados/Exercicios normalizacao de dados 2.0.xlsx
+++ b/3-back-end/bloco-21-funcoes-sql-joins-e-normalizacao/dia-3-transformando-ideias-em-um-modelo-de-banco-de-dados/Exercicios normalizacao de dados 2.0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>RESPOSTAS</t>
   </si>
@@ -22,6 +22,12 @@
     <t>TABELA DESNORMALIZADA</t>
   </si>
   <si>
+    <t>TABELA NORMALIZADA</t>
+  </si>
+  <si>
+    <t>TABELA Inquilinos</t>
+  </si>
+  <si>
     <t>residencia_id</t>
   </si>
   <si>
@@ -37,6 +43,24 @@
     <t>inquilinos</t>
   </si>
   <si>
+    <t>rua</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>inquilino_id</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
     <t>Doren Fatima</t>
   </si>
   <si>
@@ -49,6 +73,18 @@
     <t>João, Mária, Carlos</t>
   </si>
   <si>
+    <t>Rua Norte Sul</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
     <t>Ramon Johathan</t>
   </si>
   <si>
@@ -61,6 +97,21 @@
     <t>Sebastião, Alfredo</t>
   </si>
   <si>
+    <t>apto</t>
+  </si>
+  <si>
+    <t>Av Rodrigues Ramos</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Mária</t>
+  </si>
+  <si>
     <t>Vanderson Judis</t>
   </si>
   <si>
@@ -70,6 +121,15 @@
     <t>Marta, Marizete</t>
   </si>
   <si>
+    <t>Rua Brusque</t>
+  </si>
+  <si>
+    <t>Ipatinga</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t>Carolina Rude</t>
   </si>
   <si>
@@ -79,7 +139,37 @@
     <t>Letíce, Laísa, Bartolomeu</t>
   </si>
   <si>
+    <t>Av Atlantica</t>
+  </si>
+  <si>
+    <t>Camboriú</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sebastião</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Marizete</t>
+  </si>
+  <si>
     <t>Exercício 2: 🚀 Converta a tabela desnormalizada abaixo (que já está nos padrões da 1ª Forma Normal) para a 2ª Forma Normal.</t>
+  </si>
+  <si>
+    <t>Letíce</t>
+  </si>
+  <si>
+    <t>Laísa</t>
+  </si>
+  <si>
+    <t>Bartolomeu</t>
   </si>
   <si>
     <t>heroi_id</t>
@@ -173,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -198,6 +288,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="14.0"/>
@@ -242,13 +333,117 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA4335"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFEA4335"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFEA4335"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFEA4335"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEA4335"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4285F4"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF4285F4"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF4285F4"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF4285F4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4285F4"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA4335"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFEA4335"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4285F4"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF4285F4"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA4335"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FFEA4335"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFEA4335"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFEA4335"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFEA4335"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4285F4"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF4285F4"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF4285F4"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF4285F4"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF4285F4"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,16 +453,80 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -490,6 +749,15 @@
     <col customWidth="1" min="4" max="4" width="13.38"/>
     <col customWidth="1" min="5" max="5" width="37.13"/>
     <col customWidth="1" min="6" max="6" width="24.63"/>
+    <col customWidth="1" min="10" max="10" width="13.88"/>
+    <col customWidth="1" min="11" max="11" width="19.25"/>
+    <col customWidth="1" min="12" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="20.25"/>
+    <col customWidth="1" min="14" max="14" width="8.63"/>
+    <col customWidth="1" min="15" max="15" width="15.0"/>
+    <col customWidth="1" min="16" max="16" width="7.5"/>
+    <col customWidth="1" min="17" max="17" width="13.5"/>
+    <col customWidth="1" min="21" max="21" width="16.88"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -506,329 +774,561 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="R6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="14">
         <v>1.0</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="15">
+        <v>35.0</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="6">
+      <c r="B9" s="19">
         <v>2.0</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="20">
+        <v>950.0</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="14">
         <v>3.0</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="15">
+        <v>352.0</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6">
+      <c r="E11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="27">
         <v>4.0</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
+      <c r="K11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="28">
+        <v>254.0</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="R12" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="R13" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S13" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="R14" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="S14" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="R15" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="S15" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="R16" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="30" t="s">
         <v>2</v>
       </c>
+      <c r="R17" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="S17" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>28</v>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5">
+      <c r="B19" s="15">
         <v>1.0</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="C19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="15">
         <v>95.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6">
+      <c r="B20" s="20">
         <v>2.0</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="C20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="20">
         <v>75.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5">
+      <c r="B21" s="15">
         <v>3.0</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="C21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="15">
         <v>60.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="6">
+      <c r="B22" s="20">
         <v>4.0</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="C22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="20">
         <v>69.0</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
+      <c r="B29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5">
+      <c r="B30" s="15">
         <v>1.0</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="15">
         <v>1.0</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="15">
         <v>27.9</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6">
+      <c r="B31" s="20">
         <v>2.0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="20">
         <v>2.0</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="20">
         <v>30.7</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="5">
+      <c r="B32" s="15">
         <v>3.0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="15">
         <v>2.0</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="15">
         <v>26.25</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="6">
+      <c r="B33" s="20">
         <v>4.0</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="20">
         <v>3.0</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="20">
         <v>17.8</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="5">
+      <c r="B34" s="15">
         <v>5.0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="15">
         <v>4.0</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="15">
         <v>21.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="6">
+      <c r="B35" s="20">
         <v>6.0</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="20">
         <v>4.0</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="20">
         <v>18.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="5">
+      <c r="B36" s="15">
         <v>7.0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="15">
         <v>5.0</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="15">
         <v>15.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/3-back-end/bloco-21-funcoes-sql-joins-e-normalizacao/dia-3-transformando-ideias-em-um-modelo-de-banco-de-dados/Exercicios normalizacao de dados 2.0.xlsx
+++ b/3-back-end/bloco-21-funcoes-sql-joins-e-normalizacao/dia-3-transformando-ideias-em-um-modelo-de-banco-de-dados/Exercicios normalizacao de dados 2.0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>RESPOSTAS</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Exercício 3: 🚀 Agora, converta essa outra tabela (que já está nos moldes das duas primeiras formas) para a 3ª Forma Normal</t>
+  </si>
+  <si>
+    <t>TABELA Genero</t>
   </si>
   <si>
     <t>filme_id</t>
@@ -500,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -593,6 +596,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -817,10 +829,10 @@
     <col customWidth="1" min="6" max="6" width="24.63"/>
     <col customWidth="1" min="10" max="10" width="13.88"/>
     <col customWidth="1" min="11" max="11" width="19.25"/>
-    <col customWidth="1" min="12" max="12" width="9.63"/>
+    <col customWidth="1" min="12" max="12" width="14.63"/>
     <col customWidth="1" min="13" max="13" width="20.25"/>
     <col customWidth="1" min="14" max="14" width="10.75"/>
-    <col customWidth="1" min="15" max="15" width="15.0"/>
+    <col customWidth="1" min="15" max="15" width="19.25"/>
     <col customWidth="1" min="16" max="16" width="7.5"/>
     <col customWidth="1" min="17" max="17" width="11.38"/>
     <col customWidth="1" min="21" max="21" width="16.88"/>
@@ -1443,18 +1455,42 @@
       <c r="B28" s="33" t="s">
         <v>8</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" s="4"/>
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="L29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1466,10 +1502,25 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="10">
         <v>27.9</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -1480,10 +1531,25 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="17">
         <v>30.7</v>
+      </c>
+      <c r="J31" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="K31" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>30.7</v>
+      </c>
+      <c r="N31" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -1494,10 +1560,25 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" s="10">
         <v>26.25</v>
+      </c>
+      <c r="J32" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>26.25</v>
+      </c>
+      <c r="N32" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -1508,10 +1589,25 @@
         <v>3.0</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="17">
         <v>17.8</v>
+      </c>
+      <c r="J33" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="K33" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="L33" s="18">
+        <v>17.8</v>
+      </c>
+      <c r="N33" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -1522,10 +1618,25 @@
         <v>4.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="10">
         <v>21.5</v>
+      </c>
+      <c r="J34" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="N34" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -1536,11 +1647,22 @@
         <v>4.0</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="17">
         <v>18.0</v>
       </c>
+      <c r="J35" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="K35" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="L35" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="N35" s="16"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36">
       <c r="B36" s="10">
@@ -1550,14 +1672,25 @@
         <v>5.0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E36" s="10">
         <v>15.75</v>
       </c>
+      <c r="J36" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="K36" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="L36" s="36">
+        <v>15.75</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B28:E28"/>
@@ -1565,6 +1698,8 @@
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="J28:L28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
